--- a/Data/Processed/Angiosperms/missing_powo_ipni/Symplocaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Symplocaceae.xlsx
@@ -1807,7 +1807,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Mater. Gerb. Glavn. Bot. Sada R.S.F.S.R. 5: 138. 1924 </t>
+          <t>Bot. Mater. Gerb. Glavn. Bot. Sada R.S.F.S.R. 5: 138. 1924</t>
         </is>
       </c>
       <c r="J74" t="b">
